--- a/AutoApiTestStudy/excel_file/api_test.xlsx
+++ b/AutoApiTestStudy/excel_file/api_test.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -39,6 +39,12 @@
     <t>header</t>
   </si>
   <si>
+    <t>被依赖id</t>
+  </si>
+  <si>
+    <t>依赖id</t>
+  </si>
+  <si>
     <t>依赖数据</t>
   </si>
   <si>
@@ -57,6 +63,9 @@
     <t>神通卡首页获取淘礼金商品分类</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>https://qilin.shentongcard.com/qilin/wxbear/ajaxIndex</t>
   </si>
   <si>
@@ -72,55 +81,92 @@
     <t>神通卡首页获取淘礼金第一屏商品数据</t>
   </si>
   <si>
-    <t>https://qilin.shentongcard.com/qilin/h5/homev2/ajaxGetTabItems?page=1&amp;scene_id=4371&amp;tab_id=562843</t>
+    <t>https://qilin.shentongcard.com/qilin/h5/homev2/ajaxGetTabItems</t>
+  </si>
+  <si>
+    <t>ajaxGetTabItems</t>
   </si>
   <si>
     <t>"info": "success"</t>
   </si>
   <si>
+    <t>apply_3</t>
+  </si>
+  <si>
     <t>神通卡注册接口（支付宝）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://qilin.shentongcard.com/qilin/applycard/ajaxopenvip?pay_type=1&amp;out_order_no=e756b004c2209544aa4355cea3ec7e93&amp;pay_express_id=100&amp;pay_express_card=9&amp;card_type=0&amp;version=4&amp;mobile=13444444403&amp;openid=</t>
+  </si>
+  <si>
+    <t>https://qilin.shentongcard.com/qilin/applycard/ajaxapply</t>
+  </si>
+  <si>
+    <t>apply_4</t>
+  </si>
+  <si>
+    <t>ajaxapply</t>
+  </si>
+  <si>
+    <t>{
+  "data": {
+    "link": "https://qilin.shentongcard.com/qilin/applycard/payv4?out_order_no=a467a1ef874c395e7baa71d650a8efda",
+    "out_order_no": "a467a1ef874c395e7baa71d650a8efda"
+  },
+  "info": "success",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>跳转到支付宝支付页</t>
+  </si>
+  <si>
+    <t>https://qilin.shentongcard.com/qilin/applycard/ajaxopenvip</t>
+  </si>
+  <si>
+    <t>data:out_order_no</t>
+  </si>
+  <si>
+    <t>out_order_no</t>
+  </si>
+  <si>
+    <t>ajaxopenvip</t>
+  </si>
+  <si>
+    <t>"info": "\u652f\u4ed8\u6210\u529f"</t>
+  </si>
+  <si>
+    <t>cainiao_1</t>
+  </si>
+  <si>
+    <t>cainiao后台登录</t>
   </si>
   <si>
     <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳转到支付宝支付页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>out_order_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"info":"\u652f\u4ed8\u6210\u529f"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被依赖id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply_4</t>
-  </si>
-  <si>
-    <t>https://qilin.shentongcard.com/qilin/applycard/ajaxapply?mobile=13444444403&amp;version=4&amp;alipay_auth_code=&amp;openid=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data:out_order_no</t>
+  </si>
+  <si>
+    <t>http://cainiaoadmin.fanli.com/admin/login/login</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>care_login</t>
+  </si>
+  <si>
+    <t>care_login_1</t>
+  </si>
+  <si>
+    <t>小强post登录接口</t>
+  </si>
+  <si>
+    <t>https://care.seewo.com/easicare/account/v2/login</t>
+  </si>
+  <si>
+    <t>care_login_1_header</t>
+  </si>
+  <si>
+    <t>"statusCode": 200</t>
+  </si>
+  <si>
+    <t>cookies</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +174,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,14 +196,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -199,29 +237,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -523,28 +558,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="9.125" customWidth="1"/>
-    <col min="4" max="4" width="74.375" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="7" max="8" width="11.25" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="19.25" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="21.625" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="1" max="1" width="12.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="33" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="63.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.25" style="1" customWidth="1"/>
+    <col min="7" max="8" width="11.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.375" style="1" customWidth="1"/>
+    <col min="11" max="12" width="16.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="36" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" customWidth="1"/>
+    <col min="15" max="22" width="9" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -564,132 +602,202 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>10</v>
+      <c r="H4" s="4"/>
+      <c r="K4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="1">
+        <v>3333</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" t="s">
+    <row r="5" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M2" t="s">
-        <v>15</v>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" t="s">
+    <row r="6" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" t="s">
         <v>18</v>
       </c>
-      <c r="M3" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="4" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="18" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -699,11 +807,7 @@
     <row r="23" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>